--- a/static/templet/skuImport.xlsx
+++ b/static/templet/skuImport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiran/Desktop/MIS项目/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" tabRatio="802" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20640" windowHeight="11760" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="商品主档" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
   <si>
     <t>期望毛利率</t>
   </si>
@@ -127,16 +122,6 @@
         <family val="2"/>
       </rPr>
       <t>销项税率</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>型号</t>
     </r>
   </si>
   <si>
@@ -612,15 +597,23 @@
     <t>bbb</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>*型号</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1315,24 +1308,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1340,12 +1333,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1353,6 +1340,12 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1360,74 +1353,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1722,132 +1647,132 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.140625" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.5" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.42578125" customWidth="1"/>
     <col min="32" max="32" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:33" s="18" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>25</v>
       </c>
       <c r="L1" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="W1" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>93</v>
       </c>
       <c r="Z1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AA1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>95</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>1</v>
@@ -1856,30 +1781,30 @@
         <v>2</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>26</v>
+        <v>95</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="AG1" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
@@ -1888,7 +1813,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>12</v>
@@ -1900,10 +1825,10 @@
         <v>25</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>39</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>19</v>
@@ -1930,7 +1855,7 @@
         <v>21</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>20</v>
@@ -1939,7 +1864,7 @@
         <v>22</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>0</v>
@@ -1957,36 +1882,36 @@
         <v>2</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>26</v>
+        <v>45</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:33" ht="13.5" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2001,7 +1926,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2010,13 +1935,13 @@
         <v>43498</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2027,47 +1952,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:XFD17"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="18" customFormat="1" ht="53.25" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -2082,24 +2007,24 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>4</v>
@@ -2111,18 +2036,18 @@
         <v>6</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" t="s">
         <v>106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>107</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -2131,7 +2056,7 @@
         <v>43717</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="C11" s="23"/>
     </row>
   </sheetData>
@@ -2142,116 +2067,116 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="18" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>67</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>68</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>71</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>57</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>58</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/static/templet/skuImport.xlsx
+++ b/static/templet/skuImport.xlsx
@@ -59,10 +59,6 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
-    <t>销售区分</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
     <t>进货区分</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
@@ -299,9 +295,6 @@
     <t>订货计量单位重量</t>
   </si>
   <si>
-    <t>订货计量单位体积</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -372,16 +365,6 @@
     <t>商品描述(20个汉字以内,数字或英文字母算半个汉字)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>销售区分（0为备库存销售(DC商品)，1为不备库存销售2(采购执行商品)，3为不备库存销售(XD商品)）</t>
-    </r>
-  </si>
-  <si>
     <t>细分类编码</t>
   </si>
   <si>
@@ -391,16 +374,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>进货区分(0为经销,1为代销,2为联销)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>进项税率</t>
     </r>
   </si>
@@ -412,9 +385,6 @@
     <t>品牌名称</t>
   </si>
   <si>
-    <t>尺寸单位区分(0米,1厘米,2毫米,3英寸)</t>
-  </si>
-  <si>
     <t>长</t>
   </si>
   <si>
@@ -439,16 +409,10 @@
     <t>采购开始日</t>
   </si>
   <si>
-    <t>质保期管理区分(0无质保期,1质保期(天),2质保期(月),3质保期(年))</t>
-  </si>
-  <si>
     <t>保质期</t>
   </si>
   <si>
     <t>销售单位</t>
-  </si>
-  <si>
-    <t>退货区分(0不允许退货,1允许退货)</t>
   </si>
   <si>
     <t>目标周转日数</t>
@@ -471,76 +435,6 @@
   </si>
   <si>
     <t>采用开始日</t>
-  </si>
-  <si>
-    <t>价格有效期(日期)</t>
-  </si>
-  <si>
-    <t>供货商商品分类</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订货计量单位区分（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大包装单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中包装单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品包装单位）</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>鲜丰1</t>
@@ -605,6 +499,574 @@
     <t>型号</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售区分</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售区分（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为非常备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进货区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为经销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为代销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为联销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尺寸单位区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厘米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毫米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期管理区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>),3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>),4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退货区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不允许退货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许退货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格有效期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019/9/9)</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订货计量单位区分（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大包装单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中包装单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品包装单位）</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货计量单位体积</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货商商品分类编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -613,7 +1075,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -821,6 +1283,12 @@
       <name val="Microsoft YaHei"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1251,7 +1719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1305,6 +1773,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1353,6 +1824,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1369,7 +1908,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1650,9 +2189,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="AE31" sqref="AE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1"/>
@@ -1691,88 +2230,88 @@
   <sheetData>
     <row r="1" spans="1:33" s="18" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="G1" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="K1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="M1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="N1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="P1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="20" t="s">
+      <c r="Q1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="R1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="W1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>92</v>
       </c>
       <c r="Z1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="AA1" s="17" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AB1" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="AC1" s="17" t="s">
         <v>1</v>
@@ -1781,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="AE1" s="16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="AF1" s="20" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="AG1" s="17" t="s">
         <v>3</v>
@@ -1792,88 +2331,88 @@
     </row>
     <row r="2" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="8" t="s">
-        <v>38</v>
-      </c>
       <c r="N2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="U2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Y2" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="AA2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB2" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="AC2" s="5" t="s">
         <v>1</v>
@@ -1882,10 +2421,10 @@
         <v>2</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>3</v>
@@ -1896,22 +2435,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1926,7 +2465,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -1935,13 +2474,13 @@
         <v>43498</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF3" s="15" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +2497,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -1977,22 +2516,22 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="53.25" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -2009,22 +2548,22 @@
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>4</v>
@@ -2036,7 +2575,7 @@
         <v>6</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2044,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -2070,9 +2609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2093,90 +2632,90 @@
   <sheetData>
     <row r="1" spans="1:14" s="18" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>66</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>67</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="L1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>70</v>
+      <c r="M1" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="J2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/static/templet/skuImport.xlsx
+++ b/static/templet/skuImport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiran/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="20640" windowHeight="11760" tabRatio="802"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="商品主档" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
   <si>
     <t>期望毛利率</t>
   </si>
@@ -150,18 +155,6 @@
   <si>
     <t>供应商商品分类编码</t>
     <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>EP201904110001</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的货主</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>m2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>*基准销价</t>
@@ -210,872 +203,854 @@
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
+    <t>*商品编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*客户销价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*价格有效期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*商品编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*客户编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*供应商编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*进货价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*大包装单位</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*价格有效期</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>*中包装单位</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应商名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品编码(用于与客户商品，供应商商品，所在地商品进行相互关联)</t>
+  </si>
+  <si>
+    <t>供货商编码</t>
+  </si>
+  <si>
+    <t>供货商名称</t>
+  </si>
+  <si>
+    <t>进货价</t>
+  </si>
+  <si>
+    <t>大包装单位</t>
+  </si>
+  <si>
+    <t>供货商商品编码</t>
+  </si>
+  <si>
+    <t>中包装单位</t>
+  </si>
+  <si>
+    <t>供货商商品名称</t>
+  </si>
+  <si>
+    <t>订货计量单位重量</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品全称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个汉字以内</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数字或英文字母算半个汉字</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品简称(20个汉字以内,数字或英文字母算半个汉字)</t>
+  </si>
+  <si>
+    <t>货主编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品描述(20个汉字以内,数字或英文字母算半个汉字)</t>
+  </si>
+  <si>
+    <t>细分类编码</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>进项税率</t>
+    </r>
+  </si>
+  <si>
+    <t>基准销价</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌名称</t>
+  </si>
+  <si>
+    <t>长</t>
+  </si>
+  <si>
+    <t>宽</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>体积</t>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>采购开始日</t>
+  </si>
+  <si>
+    <t>保质期</t>
+  </si>
+  <si>
+    <t>销售单位</t>
+  </si>
+  <si>
+    <t>目标周转日数</t>
+  </si>
+  <si>
+    <t>规格</t>
+  </si>
+  <si>
+    <t>货主名称</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户编码</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>客户销价</t>
+  </si>
+  <si>
+    <t>采用开始日</t>
+  </si>
+  <si>
+    <t>*型号</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售区分</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>销售区分（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>常备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为非常备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>进货区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为经销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为代销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为联销</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>尺寸单位区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>厘米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毫米</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期管理区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>),3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>),4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>质保期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>))</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>退货区分</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不允许退货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>允许退货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>价格有效期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2019/9/9)</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>订货计量单位区分（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>大包装单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中包装单位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商品包装单位）</t>
+    </r>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>订货计量单位体积</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>供货商商品分类编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansell 92-600 M码 TouchNTuff一次性丁腈手套</t>
+  </si>
+  <si>
+    <t>茉莉花茶</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>H0012</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>铸件业务中心</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ansell</t>
+  </si>
+  <si>
+    <t>只</t>
+  </si>
+  <si>
+    <t>92-600</t>
+  </si>
+  <si>
+    <t>A02-002-001</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004640</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>班克斯（苏州）工业品有限公司</t>
+  </si>
+  <si>
     <t>个</t>
     <rPh sb="0" eb="1">
       <t>ge</t>
     </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>*商品编码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*客户销价</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*价格有效期</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*商品编码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*客户编码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*供应商编码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*进货价</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*大包装单位</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*价格有效期</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>*中包装单位</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>供应商名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户名称</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品编码(用于与客户商品，供应商商品，所在地商品进行相互关联)</t>
-  </si>
-  <si>
-    <t>供货商编码</t>
-  </si>
-  <si>
-    <t>供货商名称</t>
-  </si>
-  <si>
-    <t>进货价</t>
-  </si>
-  <si>
-    <t>大包装单位</t>
-  </si>
-  <si>
-    <t>价格有效期</t>
-  </si>
-  <si>
-    <t>供货商商品编码</t>
-  </si>
-  <si>
-    <t>中包装单位</t>
-  </si>
-  <si>
-    <t>供货商商品名称</t>
-  </si>
-  <si>
-    <t>订货计量单位重量</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品全称</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>个汉字以内</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数字或英文字母算半个汉字</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品简称(20个汉字以内,数字或英文字母算半个汉字)</t>
-  </si>
-  <si>
-    <t>货主编码</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品描述(20个汉字以内,数字或英文字母算半个汉字)</t>
-  </si>
-  <si>
-    <t>细分类编码</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>进项税率</t>
-    </r>
-  </si>
-  <si>
-    <t>基准销价</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>品牌名称</t>
-  </si>
-  <si>
-    <t>长</t>
-  </si>
-  <si>
-    <t>宽</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>体积</t>
-  </si>
-  <si>
-    <t>重量</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>产地</t>
-  </si>
-  <si>
-    <t>采购开始日</t>
-  </si>
-  <si>
-    <t>保质期</t>
-  </si>
-  <si>
-    <t>销售单位</t>
-  </si>
-  <si>
-    <t>目标周转日数</t>
-  </si>
-  <si>
-    <t>规格</t>
-  </si>
-  <si>
-    <t>货主名称</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户编码</t>
-  </si>
-  <si>
-    <t>客户名称</t>
-  </si>
-  <si>
-    <t>客户销价</t>
-  </si>
-  <si>
-    <t>采用开始日</t>
-  </si>
-  <si>
-    <t>鲜丰1</t>
-    <rPh sb="0" eb="1">
-      <t>xian</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>feng</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>C20190417000001</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>大头货主的客户1</t>
-    <rPh sb="0" eb="1">
-      <t>da tou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>huo zhu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>d</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ke hu</t>
-    </rPh>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>A02-002-002</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>茉莉花茶</t>
-    <rPh sb="0" eb="1">
-      <t>mo li</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>hua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>cha</t>
-    </rPh>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>茉莉花茶</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>*型号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售区分</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售区分（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>常备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为非常备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>进货区分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为经销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为代销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为联销</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>尺寸单位区分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>米</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>厘米</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>毫米</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>英寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质保期管理区分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无质保期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质保期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>天</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>),3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质保期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>),4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质保期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>))</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>退货区分</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不允许退货</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>允许退货</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>价格有效期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>2019/9/9)</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>订货计量单位区分（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>大包装单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>中包装单位</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>商品包装单位）</t>
-    </r>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>订货计量单位体积</t>
-    <phoneticPr fontId="19" type="noConversion"/>
-  </si>
-  <si>
-    <t>供货商商品分类编码</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格有效期（2019/9/9）</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1288,6 +1263,16 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF606266"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1593,7 +1578,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -1718,14 +1703,17 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1749,9 +1737,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1770,33 +1755,37 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="43">
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1804,6 +1793,12 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1811,12 +1806,7 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="千位分隔" xfId="42" builtinId="3"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1824,74 +1814,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1908,7 +1830,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2186,173 +2108,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE31" sqref="AE31"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.42578125" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" customWidth="1"/>
+    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.42578125" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="42.5" customWidth="1"/>
     <col min="32" max="32" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="18" customFormat="1" ht="51" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:33" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="V1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="W1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="X1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="Y1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="Z1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="AC1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="V1" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA1" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE1" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AF1" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>103</v>
+      <c r="G2" s="16" t="s">
+        <v>91</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>11</v>
@@ -2364,10 +2286,10 @@
         <v>24</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>18</v>
@@ -2394,7 +2316,7 @@
         <v>20</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>19</v>
@@ -2403,7 +2325,7 @@
         <v>21</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>0</v>
@@ -2421,36 +2343,36 @@
         <v>2</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AF2" s="6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="AG2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="13.5" customHeight="1">
+    <row r="3" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>98</v>
+      <c r="B3" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
+        <v>102</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>104</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2461,11 +2383,11 @@
       <c r="K3">
         <v>13</v>
       </c>
-      <c r="L3" s="2">
-        <v>1.1000000000000001</v>
+      <c r="L3" s="23">
+        <v>0.61</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -2474,13 +2396,13 @@
         <v>43498</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE3" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3" s="15" t="s">
-        <v>100</v>
+        <v>106</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF3" s="2" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2491,47 +2413,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="18" customFormat="1" ht="53.25" customHeight="1">
-      <c r="A1" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>90</v>
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>4</v>
@@ -2542,28 +2464,28 @@
       <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1">
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>4</v>
@@ -2578,25 +2500,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="F3" s="22">
-        <v>43717</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="C11" s="23"/>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+      <c r="C10" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
@@ -2606,98 +2511,98 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="18" customFormat="1" ht="57" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="F1" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="H1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="I1" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="M1" s="6" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1">
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>54</v>
-      </c>
       <c r="F2" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>28</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>7</v>
@@ -2716,11 +2621,37 @@
       </c>
       <c r="N2" s="11" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="25">
+        <v>43710</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/static/templet/skuImport.xlsx
+++ b/static/templet/skuImport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiran/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16100" tabRatio="802"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16095" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="商品主档" sheetId="1" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
   <si>
     <t>期望毛利率</t>
   </si>
@@ -1041,16 +1036,20 @@
     <t>价格有效期（2019/9/9）</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>货主商品编码</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1703,7 +1702,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1713,7 +1712,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1761,31 +1760,31 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1793,12 +1792,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1807,6 +1800,12 @@
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="42" builtinId="3"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1814,6 +1813,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1830,7 +1897,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2108,49 +2175,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" customWidth="1"/>
-    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
-    <col min="14" max="14" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5" customWidth="1"/>
-    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" customWidth="1"/>
-    <col min="18" max="18" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" customWidth="1"/>
-    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="42.5" customWidth="1"/>
-    <col min="32" max="32" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.42578125" customWidth="1"/>
+    <col min="33" max="33" width="40" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="17" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2166,92 +2233,95 @@
       <c r="E1" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="O1" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="P1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="R1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="S1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="T1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="U1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="W1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="X1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Z1" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AF1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="19" t="s">
+      <c r="AG1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -2267,92 +2337,95 @@
       <c r="E2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="H2" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="T2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AC2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AE2" s="9" t="s">
+      <c r="AF2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="AF2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="13.5" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2368,40 +2441,41 @@
       <c r="E3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G3">
+      <c r="F3" s="7"/>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>2</v>
-      </c>
-      <c r="J3">
-        <v>13</v>
       </c>
       <c r="K3">
         <v>13</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3">
+        <v>13</v>
+      </c>
+      <c r="M3" s="23">
         <v>0.61</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="V3" s="3">
+      <c r="W3" s="3">
         <v>43498</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AF3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2413,7 +2487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2422,21 +2496,21 @@
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2468,7 +2542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -2500,7 +2574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="C10" s="21"/>
     </row>
   </sheetData>
@@ -2511,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2519,23 +2593,23 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2579,7 +2653,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -2623,7 +2697,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3">
         <v>1</v>
       </c>

--- a/static/templet/skuImport.xlsx
+++ b/static/templet/skuImport.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiran/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="802"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="商品主档" sheetId="1" r:id="rId1"/>
@@ -1023,12 +1018,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1664,7 +1659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1709,31 +1704,31 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1741,12 +1736,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1754,6 +1743,12 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1845,7 +1840,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2123,49 +2118,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" customWidth="1"/>
-    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.5" customWidth="1"/>
-    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.5" customWidth="1"/>
-    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" customWidth="1"/>
-    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" customWidth="1"/>
+    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="42.5" customWidth="1"/>
+    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.42578125" customWidth="1"/>
     <col min="33" max="33" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:34" s="17" customFormat="1" ht="51" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2269,7 +2264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -2373,7 +2368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:34" ht="13.5" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2391,7 +2386,7 @@
       </c>
       <c r="F3" s="7"/>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" s="14" t="s">
         <v>106</v>
@@ -2435,7 +2430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2444,21 +2439,21 @@
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2490,7 +2485,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -2522,7 +2517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="C10" s="21"/>
     </row>
   </sheetData>
@@ -2533,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2541,23 +2536,23 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.1640625" customWidth="1"/>
-    <col min="4" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="24.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
+    <col min="4" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2601,7 +2596,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" s="12" customFormat="1">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15">
       <c r="A3">
         <v>1</v>
       </c>

--- a/static/templet/skuImport.xlsx
+++ b/static/templet/skuImport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiran/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16440" tabRatio="802"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="802"/>
   </bookViews>
   <sheets>
     <sheet name="商品主档" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="116">
   <si>
     <t>期望毛利率</t>
   </si>
@@ -1014,16 +1019,42 @@
     </rPh>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
+  <si>
+    <t>是否溯源</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su yuan</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否溯源（0否；1是）</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>su yuan</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>fou</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shi</t>
+    </rPh>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1659,7 +1690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1704,31 +1735,31 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1736,6 +1767,12 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1743,12 +1780,6 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
@@ -1840,7 +1871,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2118,49 +2149,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" customWidth="1"/>
-    <col min="19" max="19" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
+    <col min="19" max="19" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="42.42578125" customWidth="1"/>
+    <col min="28" max="28" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="42.5" customWidth="1"/>
     <col min="33" max="33" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="40" style="1" customWidth="1"/>
+    <col min="35" max="35" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="17" customFormat="1" ht="51" customHeight="1">
+    <row r="1" spans="1:35" s="17" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2261,10 +2293,13 @@
         <v>90</v>
       </c>
       <c r="AH1" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" ht="12.75" customHeight="1">
+    <row r="2" spans="1:35" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
@@ -2364,11 +2399,14 @@
       <c r="AG2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:34" ht="13.5" customHeight="1">
+    <row r="3" spans="1:35" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2420,6 +2458,9 @@
       </c>
       <c r="AG3" s="2" t="s">
         <v>105</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2439,21 +2480,21 @@
       <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2485,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1">
+    <row r="2" spans="1:10" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -2517,7 +2558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.15">
       <c r="C10" s="21"/>
     </row>
   </sheetData>
@@ -2528,7 +2569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2536,23 +2577,23 @@
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" customWidth="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" customWidth="1"/>
+    <col min="4" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="11" max="11" width="24.1640625" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="14" max="14" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="14" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1">
+    <row r="1" spans="1:14" s="17" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
         <v>55</v>
       </c>
@@ -2596,7 +2637,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1">
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>46</v>
       </c>
@@ -2640,7 +2681,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
